--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4115716666666667</v>
+        <v>0.2534736666666667</v>
       </c>
       <c r="H2">
-        <v>1.234715</v>
+        <v>0.760421</v>
       </c>
       <c r="I2">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="J2">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05504633333333334</v>
+        <v>0.2016686666666666</v>
       </c>
       <c r="N2">
-        <v>0.165139</v>
+        <v>0.6050059999999999</v>
       </c>
       <c r="O2">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="P2">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="Q2">
-        <v>0.02265551115388889</v>
+        <v>0.05111769639177777</v>
       </c>
       <c r="R2">
-        <v>0.203899600385</v>
+        <v>0.460059267526</v>
       </c>
       <c r="S2">
-        <v>5.0041850241704E-06</v>
+        <v>2.790006915287435E-05</v>
       </c>
       <c r="T2">
-        <v>5.004185024170399E-06</v>
+        <v>2.790006915287435E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4115716666666667</v>
+        <v>0.2534736666666667</v>
       </c>
       <c r="H3">
-        <v>1.234715</v>
+        <v>0.760421</v>
       </c>
       <c r="I3">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="J3">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.049737</v>
       </c>
       <c r="O3">
-        <v>0.04379557735662424</v>
+        <v>0.06243686167646252</v>
       </c>
       <c r="P3">
-        <v>0.04379557735662425</v>
+        <v>0.06243686167646253</v>
       </c>
       <c r="Q3">
-        <v>0.4183951133283333</v>
+        <v>0.2576760065863333</v>
       </c>
       <c r="R3">
-        <v>3.765556019955</v>
+        <v>2.319084059277</v>
       </c>
       <c r="S3">
-        <v>9.241577230731905E-05</v>
+        <v>0.0001406397179500361</v>
       </c>
       <c r="T3">
-        <v>9.241577230731905E-05</v>
+        <v>0.0001406397179500361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4115716666666667</v>
+        <v>0.2534736666666667</v>
       </c>
       <c r="H4">
-        <v>1.234715</v>
+        <v>0.760421</v>
       </c>
       <c r="I4">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="J4">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.671405</v>
+        <v>12.55499933333333</v>
       </c>
       <c r="N4">
-        <v>26.014215</v>
+        <v>37.664998</v>
       </c>
       <c r="O4">
-        <v>0.3735756773139306</v>
+        <v>0.7711105154871511</v>
       </c>
       <c r="P4">
-        <v>0.3735756773139306</v>
+        <v>0.771110515487151</v>
       </c>
       <c r="Q4">
-        <v>3.568904608191667</v>
+        <v>3.182361716017555</v>
       </c>
       <c r="R4">
-        <v>32.120141473725</v>
+        <v>28.641255444158</v>
       </c>
       <c r="S4">
-        <v>0.0007883052768791684</v>
+        <v>0.001736934921046856</v>
       </c>
       <c r="T4">
-        <v>0.0007883052768791681</v>
+        <v>0.001736934921046856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4115716666666667</v>
+        <v>0.2534736666666667</v>
       </c>
       <c r="H5">
-        <v>1.234715</v>
+        <v>0.760421</v>
       </c>
       <c r="I5">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="J5">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5509396666666667</v>
+        <v>0.7471930000000001</v>
       </c>
       <c r="N5">
-        <v>1.652819</v>
+        <v>2.241579</v>
       </c>
       <c r="O5">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="P5">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="Q5">
-        <v>0.2267511568427778</v>
+        <v>0.1893937494176667</v>
       </c>
       <c r="R5">
-        <v>2.040760411585</v>
+        <v>1.704543744759</v>
       </c>
       <c r="S5">
-        <v>5.008515303752777E-05</v>
+        <v>0.0001033712212963689</v>
       </c>
       <c r="T5">
-        <v>5.008515303752774E-05</v>
+        <v>0.0001033712212963689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4115716666666667</v>
+        <v>0.2534736666666667</v>
       </c>
       <c r="H6">
-        <v>1.234715</v>
+        <v>0.760421</v>
       </c>
       <c r="I6">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="J6">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.91794</v>
+        <v>1.761272</v>
       </c>
       <c r="N6">
-        <v>38.75382</v>
+        <v>5.283816</v>
       </c>
       <c r="O6">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="P6">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="Q6">
-        <v>5.3166580957</v>
+        <v>0.4464360718373333</v>
       </c>
       <c r="R6">
-        <v>47.84992286130001</v>
+        <v>4.017924646536</v>
       </c>
       <c r="S6">
-        <v>0.001174351822848602</v>
+        <v>0.0002436650740506109</v>
       </c>
       <c r="T6">
-        <v>0.001174351822848602</v>
+        <v>0.0002436650740506109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>90.57905466666666</v>
+        <v>67.65743133333334</v>
       </c>
       <c r="H7">
-        <v>271.737164</v>
+        <v>202.972294</v>
       </c>
       <c r="I7">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="J7">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.05504633333333334</v>
+        <v>0.2016686666666666</v>
       </c>
       <c r="N7">
-        <v>0.165139</v>
+        <v>0.6050059999999999</v>
       </c>
       <c r="O7">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="P7">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="Q7">
-        <v>4.986044836199556</v>
+        <v>13.64438396708489</v>
       </c>
       <c r="R7">
-        <v>44.874403525796</v>
+        <v>122.799455703764</v>
       </c>
       <c r="S7">
-        <v>0.001101325444818712</v>
+        <v>0.007447112900245447</v>
       </c>
       <c r="T7">
-        <v>0.001101325444818712</v>
+        <v>0.007447112900245447</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.57905466666666</v>
+        <v>67.65743133333334</v>
       </c>
       <c r="H8">
-        <v>271.737164</v>
+        <v>202.972294</v>
       </c>
       <c r="I8">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="J8">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.049737</v>
       </c>
       <c r="O8">
-        <v>0.04379557735662424</v>
+        <v>0.06243686167646252</v>
       </c>
       <c r="P8">
-        <v>0.04379557735662425</v>
+        <v>0.06243686167646253</v>
       </c>
       <c r="Q8">
-        <v>92.08076481398533</v>
+        <v>68.77912388740866</v>
       </c>
       <c r="R8">
-        <v>828.726883325868</v>
+        <v>619.0121149866779</v>
       </c>
       <c r="S8">
-        <v>0.02033894451404625</v>
+        <v>0.03753968680485127</v>
       </c>
       <c r="T8">
-        <v>0.02033894451404625</v>
+        <v>0.03753968680485128</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.57905466666666</v>
+        <v>67.65743133333334</v>
       </c>
       <c r="H9">
-        <v>271.737164</v>
+        <v>202.972294</v>
       </c>
       <c r="I9">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="J9">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.671405</v>
+        <v>12.55499933333333</v>
       </c>
       <c r="N9">
-        <v>26.014215</v>
+        <v>37.664998</v>
       </c>
       <c r="O9">
-        <v>0.3735756773139306</v>
+        <v>0.7711105154871511</v>
       </c>
       <c r="P9">
-        <v>0.3735756773139306</v>
+        <v>0.771110515487151</v>
       </c>
       <c r="Q9">
-        <v>785.4476675318067</v>
+        <v>849.4390052850458</v>
       </c>
       <c r="R9">
-        <v>7069.02900778626</v>
+        <v>7644.951047565411</v>
       </c>
       <c r="S9">
-        <v>0.1734909192043346</v>
+        <v>0.4636243152853344</v>
       </c>
       <c r="T9">
-        <v>0.1734909192043346</v>
+        <v>0.4636243152853343</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.57905466666666</v>
+        <v>67.65743133333334</v>
       </c>
       <c r="H10">
-        <v>271.737164</v>
+        <v>202.972294</v>
       </c>
       <c r="I10">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="J10">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5509396666666667</v>
+        <v>0.7471930000000001</v>
       </c>
       <c r="N10">
-        <v>1.652819</v>
+        <v>2.241579</v>
       </c>
       <c r="O10">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="P10">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="Q10">
-        <v>49.90359418503511</v>
+        <v>50.55315909024734</v>
       </c>
       <c r="R10">
-        <v>449.132347665316</v>
+        <v>454.9784318122261</v>
       </c>
       <c r="S10">
-        <v>0.01102278456560727</v>
+        <v>0.02759194435727793</v>
       </c>
       <c r="T10">
-        <v>0.01102278456560727</v>
+        <v>0.02759194435727793</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.57905466666666</v>
+        <v>67.65743133333334</v>
       </c>
       <c r="H11">
-        <v>271.737164</v>
+        <v>202.972294</v>
       </c>
       <c r="I11">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="J11">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.91794</v>
+        <v>1.761272</v>
       </c>
       <c r="N11">
-        <v>38.75382</v>
+        <v>5.283816</v>
       </c>
       <c r="O11">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="P11">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="Q11">
-        <v>1170.09479344072</v>
+        <v>119.1631393993227</v>
       </c>
       <c r="R11">
-        <v>10530.85314096648</v>
+        <v>1072.468254593904</v>
       </c>
       <c r="S11">
-        <v>0.2584523828406633</v>
+        <v>0.06503931249627823</v>
       </c>
       <c r="T11">
-        <v>0.2584523828406633</v>
+        <v>0.06503931249627823</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>104.0520413333333</v>
+        <v>44.618475</v>
       </c>
       <c r="H12">
-        <v>312.156124</v>
+        <v>133.855425</v>
       </c>
       <c r="I12">
-        <v>0.533483481220433</v>
+        <v>0.396505117152516</v>
       </c>
       <c r="J12">
-        <v>0.533483481220433</v>
+        <v>0.3965051171525161</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.05504633333333334</v>
+        <v>0.2016686666666666</v>
       </c>
       <c r="N12">
-        <v>0.165139</v>
+        <v>0.6050059999999999</v>
       </c>
       <c r="O12">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="P12">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="Q12">
-        <v>5.727683351248444</v>
+        <v>8.998148361949998</v>
       </c>
       <c r="R12">
-        <v>51.549150161236</v>
+        <v>80.98333525755</v>
       </c>
       <c r="S12">
-        <v>0.001265139729349589</v>
+        <v>0.004911194738161341</v>
       </c>
       <c r="T12">
-        <v>0.001265139729349589</v>
+        <v>0.004911194738161342</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>104.0520413333333</v>
+        <v>44.618475</v>
       </c>
       <c r="H13">
-        <v>312.156124</v>
+        <v>133.855425</v>
       </c>
       <c r="I13">
-        <v>0.533483481220433</v>
+        <v>0.396505117152516</v>
       </c>
       <c r="J13">
-        <v>0.533483481220433</v>
+        <v>0.3965051171525161</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.049737</v>
       </c>
       <c r="O13">
-        <v>0.04379557735662424</v>
+        <v>0.06243686167646252</v>
       </c>
       <c r="P13">
-        <v>0.04379557735662425</v>
+        <v>0.06243686167646253</v>
       </c>
       <c r="Q13">
-        <v>105.7771201265986</v>
+        <v>45.35820469702499</v>
       </c>
       <c r="R13">
-        <v>951.994081139388</v>
+        <v>408.223842273225</v>
       </c>
       <c r="S13">
-        <v>0.02336421707027067</v>
+        <v>0.02475653515366121</v>
       </c>
       <c r="T13">
-        <v>0.02336421707027067</v>
+        <v>0.02475653515366122</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.0520413333333</v>
+        <v>44.618475</v>
       </c>
       <c r="H14">
-        <v>312.156124</v>
+        <v>133.855425</v>
       </c>
       <c r="I14">
-        <v>0.533483481220433</v>
+        <v>0.396505117152516</v>
       </c>
       <c r="J14">
-        <v>0.533483481220433</v>
+        <v>0.3965051171525161</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.671405</v>
+        <v>12.55499933333333</v>
       </c>
       <c r="N14">
-        <v>26.014215</v>
+        <v>37.664998</v>
       </c>
       <c r="O14">
-        <v>0.3735756773139306</v>
+        <v>0.7711105154871511</v>
       </c>
       <c r="P14">
-        <v>0.3735756773139306</v>
+        <v>0.771110515487151</v>
       </c>
       <c r="Q14">
-        <v>902.2773914780732</v>
+        <v>560.18492387935</v>
       </c>
       <c r="R14">
-        <v>8120.49652330266</v>
+        <v>5041.664314914149</v>
       </c>
       <c r="S14">
-        <v>0.1992964528327168</v>
+        <v>0.3057492652807699</v>
       </c>
       <c r="T14">
-        <v>0.1992964528327168</v>
+        <v>0.3057492652807699</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.0520413333333</v>
+        <v>44.618475</v>
       </c>
       <c r="H15">
-        <v>312.156124</v>
+        <v>133.855425</v>
       </c>
       <c r="I15">
-        <v>0.533483481220433</v>
+        <v>0.396505117152516</v>
       </c>
       <c r="J15">
-        <v>0.533483481220433</v>
+        <v>0.3965051171525161</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5509396666666667</v>
+        <v>0.7471930000000001</v>
       </c>
       <c r="N15">
-        <v>1.652819</v>
+        <v>2.241579</v>
       </c>
       <c r="O15">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="P15">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="Q15">
-        <v>57.32639696817289</v>
+        <v>33.338612190675</v>
       </c>
       <c r="R15">
-        <v>515.9375727135559</v>
+        <v>300.047509716075</v>
       </c>
       <c r="S15">
-        <v>0.01266234494773408</v>
+        <v>0.01819623440093646</v>
       </c>
       <c r="T15">
-        <v>0.01266234494773408</v>
+        <v>0.01819623440093646</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.0520413333333</v>
+        <v>44.618475</v>
       </c>
       <c r="H16">
-        <v>312.156124</v>
+        <v>133.855425</v>
       </c>
       <c r="I16">
-        <v>0.533483481220433</v>
+        <v>0.396505117152516</v>
       </c>
       <c r="J16">
-        <v>0.533483481220433</v>
+        <v>0.3965051171525161</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.91794</v>
+        <v>1.761272</v>
       </c>
       <c r="N16">
-        <v>38.75382</v>
+        <v>5.283816</v>
       </c>
       <c r="O16">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="P16">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="Q16">
-        <v>1344.13802682152</v>
+        <v>78.58527070019998</v>
       </c>
       <c r="R16">
-        <v>12097.24224139368</v>
+        <v>707.2674363018</v>
       </c>
       <c r="S16">
-        <v>0.2968953266403618</v>
+        <v>0.04289188757898716</v>
       </c>
       <c r="T16">
-        <v>0.2968953266403618</v>
+        <v>0.04289188757898717</v>
       </c>
     </row>
   </sheetData>
